--- a/Migration_Data.xlsx
+++ b/Migration_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="3060" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="5600" windowWidth="27760" windowHeight="15540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
     <sheet name="added_edges" sheetId="1" r:id="rId2"/>
     <sheet name="added_nodes" sheetId="2" r:id="rId3"/>
-    <sheet name="altered_nodes" sheetId="3" r:id="rId4"/>
-    <sheet name="altered_edges" sheetId="4" r:id="rId5"/>
+    <sheet name="altered_edges" sheetId="4" r:id="rId4"/>
+    <sheet name="altered_nodes" sheetId="3" r:id="rId5"/>
+    <sheet name="removed_nodes" sheetId="6" r:id="rId6"/>
+    <sheet name="added_classes" sheetId="7" r:id="rId7"/>
+    <sheet name="added_properties" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="751">
   <si>
     <t>Source</t>
   </si>
@@ -150,13 +153,7 @@
     <t>SITE_OVERALL_ARCHAEOLOGICAL_CERTAINTY_TYPE.E55</t>
   </si>
   <si>
-    <t>FEATURE_COLLECTION_E24</t>
-  </si>
-  <si>
     <t>SITE_FUNCTION_TYPE.E55</t>
-  </si>
-  <si>
-    <t>PRODUCTION_NEW_E12</t>
   </si>
   <si>
     <t>SITE_FUNCTION_CERTAINTY_TYPE.E55</t>
@@ -254,8 +251,2125 @@
 N.B. This operation is not idempotent. i.e. running a given migration multiple times will lead to duplicated business data in the new area of the ontology. It is therefore recommended to divide the business data migration into multiple steps each addressing a subset of the resource graph, and proceeding with caution, taking backups at each stage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Not yet implemented. All old ontology nodes/rules/branches and associated business data will remian in the database.
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>class id</t>
+  </si>
+  <si>
+    <t>class name</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Archaeology Certainty Observation</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>Archaeology Certainty Value</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Archaeology Certainty</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>Function and Interpration Inference Making</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Interpretation Belief</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>Function Type</t>
+  </si>
+  <si>
+    <t>property id</t>
+  </si>
+  <si>
+    <t>class domain</t>
+  </si>
+  <si>
+    <t>class range</t>
+  </si>
+  <si>
+    <t>property display</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O8</t>
+    </r>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>Was Observed By</t>
+  </si>
+  <si>
+    <t>Observed Value</t>
+  </si>
+  <si>
+    <t>Observed Property Type</t>
+  </si>
+  <si>
+    <t>Used as premise</t>
+  </si>
+  <si>
+    <t>That</t>
+  </si>
+  <si>
+    <t>Holds to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following a migration, old areas of ontology can be removed, along with any associated business data.
+The configuration for this is stored in &lt;RESOUCE_TYPE&gt;_removed_nodes.csv, again in the directory specified by the Settings file.
+This csv should contains a single column, listing the entitytypeids to be removed.
+The business data and ontology data can be removed using
+python manage.py packages -o prune_ontology
+This command will remove:
+ • Business data
+  ○ All entities of these types
+  ○ Relationships to or from those entities
+  ○ Value entries for those entities
+ • Ontology data
+  ○ The entity type entries
+  ○ Mappings and Mapping steps to these entity types
+  ○ Rules associated to these mappings
+N.B. Only leaf nodes or entire branches should be removed at the same time. Removing an intermediate entity type without also removing its descendant entity types may have adverse consequences.
 </t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P140</t>
+    </r>
+  </si>
+  <si>
+    <t>-P25</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>falls within</t>
+  </si>
+  <si>
+    <t>-P10</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>E69</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>was death of</t>
+  </si>
+  <si>
+    <t>-P100</t>
+  </si>
+  <si>
+    <t>died in</t>
+  </si>
+  <si>
+    <t>-P101</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>E70</t>
+  </si>
+  <si>
+    <t>was use of</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>E71</t>
+  </si>
+  <si>
+    <t>E35</t>
+  </si>
+  <si>
+    <t>has title</t>
+  </si>
+  <si>
+    <t>-P102</t>
+  </si>
+  <si>
+    <t>is title of</t>
+  </si>
+  <si>
+    <t>-P103</t>
+  </si>
+  <si>
+    <t>was intention of</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>E72</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>is subject to</t>
+  </si>
+  <si>
+    <t>-P104</t>
+  </si>
+  <si>
+    <t>applies to</t>
+  </si>
+  <si>
+    <t>-P105</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>has right on</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>E90</t>
+  </si>
+  <si>
+    <t>is composed of</t>
+  </si>
+  <si>
+    <t>-P106</t>
+  </si>
+  <si>
+    <t>forms part of</t>
+  </si>
+  <si>
+    <t>-P107</t>
+  </si>
+  <si>
+    <t>E74</t>
+  </si>
+  <si>
+    <t>is current or former member of</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>has produced</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>E78</t>
+  </si>
+  <si>
+    <t>has current or former curator</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>had participant</t>
+  </si>
+  <si>
+    <t>-P11</t>
+  </si>
+  <si>
+    <t>participated in</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>E79</t>
+  </si>
+  <si>
+    <t>augmented</t>
+  </si>
+  <si>
+    <t>-P110</t>
+  </si>
+  <si>
+    <t>was augmented by</t>
+  </si>
+  <si>
+    <t>-P111</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>was added by</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>E80</t>
+  </si>
+  <si>
+    <t>diminished</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>-P113</t>
+  </si>
+  <si>
+    <t>was removed by</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>is equal in time to</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>finishes</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>starts</t>
+  </si>
+  <si>
+    <t>-P116</t>
+  </si>
+  <si>
+    <t>is started by</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>occurs during</t>
+  </si>
+  <si>
+    <t>-P117</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>-P118</t>
+  </si>
+  <si>
+    <t>is overlapped in time by</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>meets in time with</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>E77</t>
+  </si>
+  <si>
+    <t>occurred in the presence of</t>
+  </si>
+  <si>
+    <t>-P12</t>
+  </si>
+  <si>
+    <t>was present at</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>occurs  before</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>overlaps with</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>borders with</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>E81</t>
+  </si>
+  <si>
+    <t>resulted in</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>transformed</t>
+  </si>
+  <si>
+    <t>-P124</t>
+  </si>
+  <si>
+    <t>was transformed by</t>
+  </si>
+  <si>
+    <t>-P125</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>was type of object used in</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>has broader term</t>
+  </si>
+  <si>
+    <t>-P127</t>
+  </si>
+  <si>
+    <t>has narrower term</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>E73</t>
+  </si>
+  <si>
+    <t>carries</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>E89</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>is about</t>
+  </si>
+  <si>
+    <t>-P129</t>
+  </si>
+  <si>
+    <t>is subject of</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
+    <t>-P13</t>
+  </si>
+  <si>
+    <t>was destroyed by</t>
+  </si>
+  <si>
+    <t>-P130</t>
+  </si>
+  <si>
+    <t>features are also found on</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>E82</t>
+  </si>
+  <si>
+    <t>is identified by</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>is separated from</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>continued</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>E83</t>
+  </si>
+  <si>
+    <t>created type</t>
+  </si>
+  <si>
+    <t>-P135</t>
+  </si>
+  <si>
+    <t>was created by</t>
+  </si>
+  <si>
+    <t>P136</t>
+  </si>
+  <si>
+    <t>was based on</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>exemplifies</t>
+  </si>
+  <si>
+    <t>-P137</t>
+  </si>
+  <si>
+    <t>is exemplified by</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>represents</t>
+  </si>
+  <si>
+    <t>P139</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>has alternative form</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>carried out by</t>
+  </si>
+  <si>
+    <t>-P14</t>
+  </si>
+  <si>
+    <t>performed</t>
+  </si>
+  <si>
+    <t>-P140</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>was attributed by</t>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>-P141</t>
+  </si>
+  <si>
+    <t>was assigned by</t>
+  </si>
+  <si>
+    <t>-P142</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>was used in</t>
+  </si>
+  <si>
+    <t>P143</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>joined</t>
+  </si>
+  <si>
+    <t>-P143</t>
+  </si>
+  <si>
+    <t>was joined by</t>
+  </si>
+  <si>
+    <t>-P144</t>
+  </si>
+  <si>
+    <t>gained member by</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>E86</t>
+  </si>
+  <si>
+    <t>separated</t>
+  </si>
+  <si>
+    <t>-P145</t>
+  </si>
+  <si>
+    <t>left by</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>separated from</t>
+  </si>
+  <si>
+    <t>P147</t>
+  </si>
+  <si>
+    <t>E87</t>
+  </si>
+  <si>
+    <t>curated</t>
+  </si>
+  <si>
+    <t>-P147</t>
+  </si>
+  <si>
+    <t>was curated by</t>
+  </si>
+  <si>
+    <t>P148</t>
+  </si>
+  <si>
+    <t>has component</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>was influenced by</t>
+  </si>
+  <si>
+    <t>-P15</t>
+  </si>
+  <si>
+    <t>influenced</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>used specific object</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>was  motivated by</t>
+  </si>
+  <si>
+    <t>-P17</t>
+  </si>
+  <si>
+    <t>motivated</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>was intended use of</t>
+  </si>
+  <si>
+    <t>has type</t>
+  </si>
+  <si>
+    <t>-P2</t>
+  </si>
+  <si>
+    <t>is type of</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>had specific purpose</t>
+  </si>
+  <si>
+    <t>-P20</t>
+  </si>
+  <si>
+    <t>was purpose of</t>
+  </si>
+  <si>
+    <t>-P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>transferred title to</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>transferred title from</t>
+  </si>
+  <si>
+    <t>-P23</t>
+  </si>
+  <si>
+    <t>surrendered title through</t>
+  </si>
+  <si>
+    <t>-P24</t>
+  </si>
+  <si>
+    <t>changed ownership through</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>moved</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>moved to</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>moved from</t>
+  </si>
+  <si>
+    <t>-P27</t>
+  </si>
+  <si>
+    <t>was origin of</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>custody surrendered by</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>custody received by</t>
+  </si>
+  <si>
+    <t>-P29</t>
+  </si>
+  <si>
+    <t>received custody through</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>transferred custody of</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>-P43</t>
+  </si>
+  <si>
+    <t>E54</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>-P62</t>
+  </si>
+  <si>
+    <t>-P1</t>
+  </si>
+  <si>
+    <t>identifies</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>had as general use</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>was intended for</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>right held by</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>has current or former member</t>
+  </si>
+  <si>
+    <t>-P108</t>
+  </si>
+  <si>
+    <t>was produced by</t>
+  </si>
+  <si>
+    <t>-P109</t>
+  </si>
+  <si>
+    <t>is current or former curator of</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>has modified</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>used general technique</t>
+  </si>
+  <si>
+    <t>-P32</t>
+  </si>
+  <si>
+    <t>was technique of</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
+    <t>-P34</t>
+  </si>
+  <si>
+    <t>was assessed by</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>has identified</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>E42</t>
+  </si>
+  <si>
+    <t>-P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>deassigned</t>
+  </si>
+  <si>
+    <t>-P38</t>
+  </si>
+  <si>
+    <t>was deassigned by</t>
+  </si>
+  <si>
+    <t>-P39</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>was measured by</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>has time-span</t>
+  </si>
+  <si>
+    <t>-P4</t>
+  </si>
+  <si>
+    <t>is time-span of</t>
+  </si>
+  <si>
+    <t>-P40</t>
+  </si>
+  <si>
+    <t>was observed in</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>classified</t>
+  </si>
+  <si>
+    <t>-P41</t>
+  </si>
+  <si>
+    <t>was classified by</t>
+  </si>
+  <si>
+    <t>-P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>has dimension</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>has condition</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>consists of</t>
+  </si>
+  <si>
+    <t>-P45</t>
+  </si>
+  <si>
+    <t>is incorporated in</t>
+  </si>
+  <si>
+    <t>-P46</t>
+  </si>
+  <si>
+    <t>has preferred identifier</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>has former or current keeper</t>
+  </si>
+  <si>
+    <t>-P49</t>
+  </si>
+  <si>
+    <t>is former or current keeper of</t>
+  </si>
+  <si>
+    <t>-P5</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>has current keeper</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>has former or current owner</t>
+  </si>
+  <si>
+    <t>-P51</t>
+  </si>
+  <si>
+    <t>is former or current owner of</t>
+  </si>
+  <si>
+    <t>-P52</t>
+  </si>
+  <si>
+    <t>is current owner of</t>
+  </si>
+  <si>
+    <t>-P53</t>
+  </si>
+  <si>
+    <t>is former or current location of</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>has current permanent location</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>has current location</t>
+  </si>
+  <si>
+    <t>-P55</t>
+  </si>
+  <si>
+    <t>currently holds</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>bears feature</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>E60</t>
+  </si>
+  <si>
+    <t>has number of parts</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>has section definition</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>has section</t>
+  </si>
+  <si>
+    <t>-P59</t>
+  </si>
+  <si>
+    <t>is located on or within</t>
+  </si>
+  <si>
+    <t>-P65</t>
+  </si>
+  <si>
+    <t>is shown by</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>refers to</t>
+  </si>
+  <si>
+    <t>-P67</t>
+  </si>
+  <si>
+    <t>is referred to by</t>
+  </si>
+  <si>
+    <t>-P68</t>
+  </si>
+  <si>
+    <t>use foreseen by</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>took place at</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>-P70</t>
+  </si>
+  <si>
+    <t>is documented in</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>lists</t>
+  </si>
+  <si>
+    <t>-P71</t>
+  </si>
+  <si>
+    <t>is listed in</t>
+  </si>
+  <si>
+    <t>-P72</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>is language of</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>has translation</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>has current or former residence</t>
+  </si>
+  <si>
+    <t>-P74</t>
+  </si>
+  <si>
+    <t>is current or former residence of</t>
+  </si>
+  <si>
+    <t>-P75</t>
+  </si>
+  <si>
+    <t>is possessed by</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>has contact point</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>E49</t>
+  </si>
+  <si>
+    <t>-P78</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>beginning is qualified by</t>
+  </si>
+  <si>
+    <t>-P8</t>
+  </si>
+  <si>
+    <t>witnessed</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>end is qualified by</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>E61</t>
+  </si>
+  <si>
+    <t>ongoing throughout</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>had at least duration</t>
+  </si>
+  <si>
+    <t>-P83</t>
+  </si>
+  <si>
+    <t>was minimum duration of</t>
+  </si>
+  <si>
+    <t>-P84</t>
+  </si>
+  <si>
+    <t>was maximum duration of</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>E44</t>
+  </si>
+  <si>
+    <t>-P87</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>-P89</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>has value</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>has unit</t>
+  </si>
+  <si>
+    <t>-P91</t>
+  </si>
+  <si>
+    <t>is unit of</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>E63</t>
+  </si>
+  <si>
+    <t>brought into existence</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>E64</t>
+  </si>
+  <si>
+    <t>took out of existence</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>E65</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>has created</t>
+  </si>
+  <si>
+    <t>-P94</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>E66</t>
+  </si>
+  <si>
+    <t>has formed</t>
+  </si>
+  <si>
+    <t>-P95</t>
+  </si>
+  <si>
+    <t>was formed by</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>E67</t>
+  </si>
+  <si>
+    <t>by mother</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>from father</t>
+  </si>
+  <si>
+    <t>-P97</t>
+  </si>
+  <si>
+    <t>was father for</t>
+  </si>
+  <si>
+    <t>-P98</t>
+  </si>
+  <si>
+    <t>was born</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>E68</t>
+  </si>
+  <si>
+    <t>dissolved</t>
+  </si>
+  <si>
+    <t>-P99</t>
+  </si>
+  <si>
+    <t>was dissolved by</t>
+  </si>
+  <si>
+    <t>-P112</t>
+  </si>
+  <si>
+    <t>was diminished by</t>
+  </si>
+  <si>
+    <t>-P115</t>
+  </si>
+  <si>
+    <t>is finished by</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>overlaps in time with</t>
+  </si>
+  <si>
+    <t>-P119</t>
+  </si>
+  <si>
+    <t>is met in time by</t>
+  </si>
+  <si>
+    <t>-P120</t>
+  </si>
+  <si>
+    <t>occurs  after</t>
+  </si>
+  <si>
+    <t>-P123</t>
+  </si>
+  <si>
+    <t>resulted from</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>used object of type</t>
+  </si>
+  <si>
+    <t>-P126</t>
+  </si>
+  <si>
+    <t>was employed in</t>
+  </si>
+  <si>
+    <t>-P128</t>
+  </si>
+  <si>
+    <t>is carried by</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>shows features of</t>
+  </si>
+  <si>
+    <t>-P131</t>
+  </si>
+  <si>
+    <t>-P134</t>
+  </si>
+  <si>
+    <t>was continued by</t>
+  </si>
+  <si>
+    <t>-P136</t>
+  </si>
+  <si>
+    <t>supported type creation</t>
+  </si>
+  <si>
+    <t>-P138</t>
+  </si>
+  <si>
+    <t>has representation</t>
+  </si>
+  <si>
+    <t>P140</t>
+  </si>
+  <si>
+    <t>assigned attribute to</t>
+  </si>
+  <si>
+    <t>P142</t>
+  </si>
+  <si>
+    <t>used constituent</t>
+  </si>
+  <si>
+    <t>P144</t>
+  </si>
+  <si>
+    <t>joined with</t>
+  </si>
+  <si>
+    <t>-P146</t>
+  </si>
+  <si>
+    <t>lost member by</t>
+  </si>
+  <si>
+    <t>-P148</t>
+  </si>
+  <si>
+    <t>is component of</t>
+  </si>
+  <si>
+    <t>-P16</t>
+  </si>
+  <si>
+    <t>was used for</t>
+  </si>
+  <si>
+    <t>-P19</t>
+  </si>
+  <si>
+    <t>was made for</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>had general purpose</t>
+  </si>
+  <si>
+    <t>-P22</t>
+  </si>
+  <si>
+    <t>acquired title through</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>transferred title of</t>
+  </si>
+  <si>
+    <t>-P26</t>
+  </si>
+  <si>
+    <t>was destination of</t>
+  </si>
+  <si>
+    <t>-P28</t>
+  </si>
+  <si>
+    <t>surrendered custody through</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>has note</t>
+  </si>
+  <si>
+    <t>-P30</t>
+  </si>
+  <si>
+    <t>custody transferred through</t>
+  </si>
+  <si>
+    <t>-P31</t>
+  </si>
+  <si>
+    <t>was modified by</t>
+  </si>
+  <si>
+    <t>-P33</t>
+  </si>
+  <si>
+    <t>was used by</t>
+  </si>
+  <si>
+    <t>-P35</t>
+  </si>
+  <si>
+    <t>identified by</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>observed dimension</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>-P44</t>
+  </si>
+  <si>
+    <t>is condition of</t>
+  </si>
+  <si>
+    <t>-P48</t>
+  </si>
+  <si>
+    <t>is preferred identifier of</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>-P50</t>
+  </si>
+  <si>
+    <t>is current keeper of</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>has current owner</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>has former or current location</t>
+  </si>
+  <si>
+    <t>-P54</t>
+  </si>
+  <si>
+    <t>is current permanent location of</t>
+  </si>
+  <si>
+    <t>-P56</t>
+  </si>
+  <si>
+    <t>is found on</t>
+  </si>
+  <si>
+    <t>-P58</t>
+  </si>
+  <si>
+    <t>defines section</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>shows visual item</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>foresees use of</t>
+  </si>
+  <si>
+    <t>-P7</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>has language</t>
+  </si>
+  <si>
+    <t>-P73</t>
+  </si>
+  <si>
+    <t>is translation of</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>possesses</t>
+  </si>
+  <si>
+    <t>-P76</t>
+  </si>
+  <si>
+    <t>provides access to</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>took place on or within</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>at some time within</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>had at most duration</t>
+  </si>
+  <si>
+    <t>-P86</t>
+  </si>
+  <si>
+    <t>-P88</t>
+  </si>
+  <si>
+    <t>-P9</t>
+  </si>
+  <si>
+    <t>-P92</t>
+  </si>
+  <si>
+    <t>was brought into existence by</t>
+  </si>
+  <si>
+    <t>-P93</t>
+  </si>
+  <si>
+    <t>was taken out of existence by</t>
+  </si>
+  <si>
+    <t>-P96</t>
+  </si>
+  <si>
+    <t>gave birth</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>brought into life</t>
+  </si>
+  <si>
+    <t>BM.PX.is_related_to</t>
+  </si>
+  <si>
+    <t>is related to</t>
+  </si>
+  <si>
+    <t>P14.1</t>
+  </si>
+  <si>
+    <t>in the role of</t>
+  </si>
+  <si>
+    <t>Transfer of Custody</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Physical Object</t>
+  </si>
+  <si>
+    <t>Temporal Entity</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>Biological Object</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>Man-Made Object</t>
+  </si>
+  <si>
+    <t>Physical Man-Made Thing</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>Man-Made Feature</t>
+  </si>
+  <si>
+    <t>Physical Feature</t>
+  </si>
+  <si>
+    <t>Conceptual Object</t>
+  </si>
+  <si>
+    <t>Linguistic Object</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Visual Item</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>Legal Body</t>
+  </si>
+  <si>
+    <t>Section Definition</t>
+  </si>
+  <si>
+    <t>Contact Point</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>Primitive Value</t>
+  </si>
+  <si>
+    <t>Destruction</t>
+  </si>
+  <si>
+    <t>Time Primitive</t>
+  </si>
+  <si>
+    <t>Beginning of Existence</t>
+  </si>
+  <si>
+    <t>End of Existence</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>Dissolution</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>Man-Made Thing</t>
+  </si>
+  <si>
+    <t>Legal Object</t>
+  </si>
+  <si>
+    <t>Information Object</t>
+  </si>
+  <si>
+    <t>E75</t>
+  </si>
+  <si>
+    <t>Conceptual Object Appellation</t>
+  </si>
+  <si>
+    <t>Persistent Item</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Part Addition</t>
+  </si>
+  <si>
+    <t>Acquisition Event</t>
+  </si>
+  <si>
+    <t>Part Removal</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Type Creation</t>
+  </si>
+  <si>
+    <t>E84</t>
+  </si>
+  <si>
+    <t>Information Carrier</t>
+  </si>
+  <si>
+    <t>Joining</t>
+  </si>
+  <si>
+    <t>Leaving</t>
+  </si>
+  <si>
+    <t>Curation Activity</t>
+  </si>
+  <si>
+    <t>Propositional Object</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Symbolic Object</t>
+  </si>
+  <si>
+    <t>CRM Entity</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Attribute Assignment</t>
+  </si>
+  <si>
+    <t>Condition Assessment</t>
+  </si>
+  <si>
+    <t>Identifier Assignment</t>
+  </si>
+  <si>
+    <t>Type Assignment</t>
+  </si>
+  <si>
+    <t>Physical Thing</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Design or Procedure</t>
+  </si>
+  <si>
+    <t>Condition State</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Authority Document</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Appellation</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Place Appellation</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>E47</t>
+  </si>
+  <si>
+    <t>Spatial Coordinates</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>Place Name</t>
+  </si>
+  <si>
+    <t>Time Appellation</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time-Span</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Measurement Unit</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Creation</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Actor Appellation</t>
   </si>
 </sst>
 </file>
@@ -279,12 +2393,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,7 +2419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,6 +2427,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,52 +2720,52 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -650,12 +2773,12 @@
     </row>
     <row r="16" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="352" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +2792,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +2830,7 @@
       <c r="D2">
         <v>25000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -724,9 +2847,8 @@
       <c r="D3">
         <v>25001</v>
       </c>
-      <c r="E3">
-        <f>-O8</f>
-        <v>0</v>
+      <c r="E3" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +2864,7 @@
       <c r="D4">
         <v>25002</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -759,7 +2881,7 @@
       <c r="D5">
         <v>25003</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -776,7 +2898,7 @@
       <c r="D6">
         <v>25004</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -793,10 +2915,12 @@
       <c r="D7">
         <v>25005</v>
       </c>
-      <c r="E7">
-        <f>-P92</f>
-        <v>0</v>
-      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -811,9 +2935,8 @@
       <c r="D9">
         <v>25006</v>
       </c>
-      <c r="E9">
-        <f>-P140</f>
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +2952,7 @@
       <c r="D10">
         <v>25007</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -846,7 +2969,7 @@
       <c r="D11">
         <v>25008</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -863,9 +2986,12 @@
       <c r="D12">
         <v>25009</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -880,7 +3006,7 @@
       <c r="D14">
         <v>25010</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -897,7 +3023,7 @@
       <c r="D15">
         <v>25011</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -914,7 +3040,7 @@
       <c r="D16">
         <v>25012</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -931,7 +3057,7 @@
       <c r="D17">
         <v>25013</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -945,7 +3071,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,10 +3292,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,77 +3375,80 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1280,46 +3456,4625 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO ontology.classes VALUES('", A2, "', '", B2, "', true);")</f>
+        <v>INSERT INTO ontology.classes VALUES('S4', 'Archaeology Certainty Observation', true);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C7" si="0">CONCATENATE("INSERT INTO ontology.classes VALUES('", A3, "', '", B3, "', true);")</f>
+        <v>INSERT INTO ontology.classes VALUES('I6', 'Archaeology Certainty Value', true);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('S9', 'Archaeology Certainty', true);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('I5', 'Function and Interpration Inference Making', true);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('I2', 'Interpretation Belief', true);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('I4', 'Function Type', true);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E269"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
       </c>
       <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("INSERT INTO ontology.properties VALUES ('", A2, "', '", B2, "', '", C2, "', '", D2, "');")</f>
+        <v>INSERT INTO ontology.properties VALUES ('-O8', 'E24', 'S4', 'Was Observed By');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">CONCATENATE("INSERT INTO ontology.properties VALUES ('", A3, "', '", B3, "', '", C3, "', '", D3, "');")</f>
+        <v>INSERT INTO ontology.properties VALUES ('O16', 'S4', 'I6', 'Observed Value');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.properties VALUES ('O9', 'S4', 'S9', 'Observed Property Type');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.properties VALUES ('J1', 'I5', 'I2', 'Used as premise');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.properties VALUES ('J4', 'I2', 'I4', 'That');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.properties VALUES ('J5', 'I2', 'I6', 'Holds to be');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B112" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
+      <c r="B143" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Migration_Data.xlsx
+++ b/Migration_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="5600" windowWidth="27760" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="7900" yWindow="5600" windowWidth="27760" windowHeight="15540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="removed_nodes" sheetId="6" r:id="rId6"/>
     <sheet name="added_classes" sheetId="7" r:id="rId7"/>
     <sheet name="added_properties" sheetId="8" r:id="rId8"/>
+    <sheet name="converted_resources" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="748">
   <si>
     <t>Source</t>
   </si>
@@ -184,71 +185,6 @@
   </si>
   <si>
     <t>P48</t>
-  </si>
-  <si>
-    <t>Export to csv and add path to settings</t>
-  </si>
-  <si>
-    <t>Add new properties</t>
-  </si>
-  <si>
-    <t>Extend ontology</t>
-  </si>
-  <si>
-    <t>Migrate Business Data</t>
-  </si>
-  <si>
-    <t>Prune ontology and Business Data</t>
-  </si>
-  <si>
-    <t>Migration instructions</t>
-  </si>
-  <si>
-    <t>The data in this spreadsheet can be used to migrate business data of an arches database.
-The migration is done in 2 stages:
- • extend_ontology
-    migrate_resources</t>
-  </si>
-  <si>
-    <t>Before executing either of these stages, the spreadsheet sheets should first be exported to csv files named &lt;RESOURCE_TYPE&gt;_&lt;sheet_name&gt;.csv
-E.g. HERITAGE_RESOURCE_GROUP.E27_added_nodes.csv
-These should all be in a common directory, and an entry for ADDITIONAL_RESOURCE_GRAPH_LOCATIONS should be added to settings.py to point at any such directories as a tuple of paths. E.g.
-ADDITIONAL_RESOURCE_GRAPH_LOCATIONS = (
-     os.path.join(PACKAGE_ROOT, 'additional_resource_graphs'),
-)</t>
-  </si>
-  <si>
-    <t>If the new ontology structure requires any new property types, these must be added to the database.
-The extend_ontology command  described below will execute the sql file found at: arches/management/commands/package_utils/added_classes.sql, so this file should be updated to add any property types not defined in the standard set of PX relationships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ontology is extended by inserting additional nodes and relationships to the resource graph, in much the same way as graphs are imported in the first instance. The code implementing the extension is based on the resource graph import code.
-As per the main import process, ontology data is in 2 files: &lt;RESOURCE_TYPE&gt;_added_edges.csv and _added_edges.csv. A further file determines changes to the properties linking nodes: &lt;RESOURCE_TYPE&gt;_altered_edges.csv
-With the files in place and pointed at the settings, the ontology is extended with the command:
-python manage.py packages -o extend_ontology
-N.B. nodes declared in the added_nodes.csv file will be taken to represent the nodes in the existing graph if they share the same name. There will typically be at least the root HERITAGE_RESOURCE_ROOT.E27 represented in the schema.
-N.N.B. For importing schemas for new resource types, e.g. E24/E25, the existing arches workflow should be used.
-</t>
-  </si>
-  <si>
-    <t>At this point the ontology consists of the old schema, with new entity types and rules added. Some edge property types on the old schema have been altered.
-All business data resides in the nodes and rules of the old schema however, so a separate command with its own configuration is used to populate areas of the new schema based on data in the old.
-The data is migrated according to the &lt;RESOURCE_TYPE&gt;_altered_nodes.csv file. This file lists nodes where business data values within the old schema should be set for nodes within the new ontology.
-This file has the following columns:
- • OldEntityTypeId
-      ○ The entity in which to find the value
- • NewEntityTypeId
-      ○ The entity type to be added to the resource with said value
- • GroupRootNodeOld, GroupRootNodeNew
-      ○ Where multiple related values are being migrated to the new area of the graph, they can be moved together by specifying a pair or group root nodes are specified.
-      ○ For example, Where the existing business data specifies a FEATURE_EVIDENCE_INTERPRETATION_TYPE with an associated certainty, and these values are to be moved to new nodes in the resource graph, the certainty can be kept associated to the type by specifying
-          - GroupRootNodeOld = FEATURE_EVIDENCE_INTERPRETATION_ASSIGNMENT.E17
-          - GroupRootNodeNew = FEATUREFUNCTION_AND_INTERPRETATION.I5
-  ○ Without these group nodes specified, the data would gain the new nodes and values, but the graph structure would not associate them together. For a resource with multiple interpretation types and certainties, there would be no way to know which certainty applies to which interpretation.
-Resources are reindexed after being updated.
-To run the migration invoke the following command
-python manage.py packages -o migrate_resources
-N.B. This operation is not idempotent. i.e. running a given migration multiple times will lead to duplicated business data in the new area of the ontology. It is therefore recommended to divide the business data migration into multiple steps each addressing a subset of the resource graph, and proceeding with caution, taking backups at each stage.</t>
   </si>
   <si>
     <t>NodeId</t>
@@ -347,24 +283,6 @@
     <t>Holds to be</t>
   </si>
   <si>
-    <t xml:space="preserve">Following a migration, old areas of ontology can be removed, along with any associated business data.
-The configuration for this is stored in &lt;RESOUCE_TYPE&gt;_removed_nodes.csv, again in the directory specified by the Settings file.
-This csv should contains a single column, listing the entitytypeids to be removed.
-The business data and ontology data can be removed using
-python manage.py packages -o prune_ontology
-This command will remove:
- • Business data
-  ○ All entities of these types
-  ○ Relationships to or from those entities
-  ○ Value entries for those entities
- • Ontology data
-  ○ The entity type entries
-  ○ Mappings and Mapping steps to these entity types
-  ○ Rules associated to these mappings
-N.B. Only leaf nodes or entire branches should be removed at the same time. Removing an intermediate entity type without also removing its descendant entity types may have adverse consequences.
-</t>
-  </si>
-  <si>
     <r>
       <t>-</t>
     </r>
@@ -2370,6 +2288,33 @@
   </si>
   <si>
     <t>Actor Appellation</t>
+  </si>
+  <si>
+    <t>See DataMigration.md for instructions</t>
+  </si>
+  <si>
+    <t>resourceid</t>
+  </si>
+  <si>
+    <t>target_resource_type</t>
+  </si>
+  <si>
+    <t>related_resourceid</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>21fbc16d-264f-4505-b8d7-d09f4248ff3c</t>
+  </si>
+  <si>
+    <t>PHYSICAL_MAN_MADE_THING.E24</t>
+  </si>
+  <si>
+    <t>43b89087-29aa-48f5-92fa-c900697cb36e</t>
+  </si>
+  <si>
+    <t>contained</t>
   </si>
 </sst>
 </file>
@@ -2709,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2720,66 +2665,44 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
     <row r="7" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="10" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="13" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="352" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,7 +2771,7 @@
         <v>25001</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2916,7 +2839,7 @@
         <v>25005</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2936,7 +2859,7 @@
         <v>25006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3485,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3496,21 +3419,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("INSERT INTO ontology.classes VALUES('", A2, "', '", B2, "', true);")</f>
@@ -3519,10 +3442,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">CONCATENATE("INSERT INTO ontology.classes VALUES('", A3, "', '", B3, "', true);")</f>
@@ -3531,10 +3454,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3543,10 +3466,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3555,10 +3478,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3567,10 +3490,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3579,607 +3502,607 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>2</v>
@@ -4187,82 +4110,82 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -4286,33 +4209,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("INSERT INTO ontology.properties VALUES ('", A2, "', '", B2, "', '", C2, "', '", D2, "');")</f>
@@ -4324,13 +4247,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E7" si="0">CONCATENATE("INSERT INTO ontology.properties VALUES ('", A3, "', '", B3, "', '", C3, "', '", D3, "');")</f>
@@ -4342,13 +4265,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -4360,13 +4283,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -4378,13 +4301,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -4396,13 +4319,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -4411,1164 +4334,1164 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,293 +5499,293 @@
         <v>14</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,433 +5793,433 @@
         <v>48</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -6304,349 +6227,349 @@
         <v>49</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6654,1035 +6577,1035 @@
         <v>10</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B212" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C212" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="D212" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7690,391 +7613,440 @@
         <v>7</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>650</v>
+        <v>638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/Migration_Data.xlsx
+++ b/Migration_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="5600" windowWidth="27760" windowHeight="15540" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="38400" yWindow="-7360" windowWidth="21600" windowHeight="37940" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="756">
   <si>
     <t>Source</t>
   </si>
@@ -2315,6 +2315,30 @@
   </si>
   <si>
     <t>contained</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>SP5</t>
+  </si>
+  <si>
+    <t>Geometric Place Expression?</t>
+  </si>
+  <si>
+    <t>Declarative Place?</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>Spatial coordinates reference system?</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>Recommendation Plan?</t>
   </si>
 </sst>
 </file>
@@ -3406,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3448,7 +3472,7 @@
         <v>57</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C7" si="0">CONCATENATE("INSERT INTO ontology.classes VALUES('", A3, "', '", B3, "', true);")</f>
+        <f t="shared" ref="C3:C11" si="0">CONCATENATE("INSERT INTO ontology.classes VALUES('", A3, "', '", B3, "', true);")</f>
         <v>INSERT INTO ontology.classes VALUES('I6', 'Archaeology Certainty Value', true);</v>
       </c>
     </row>
@@ -3501,690 +3525,738 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>639</v>
+      <c r="A8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('SP6', 'Declarative Place?', true);</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>640</v>
+      <c r="A9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('SP5', 'Geometric Place Expression?', true);</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>641</v>
+      <c r="A10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('SP4', 'Spatial coordinates reference system?', true);</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>666</v>
+      <c r="A11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ontology.classes VALUES('E100', 'Recommendation Plan?', true);</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>493</v>
+        <v>311</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>496</v>
+        <v>190</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>504</v>
+        <v>363</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>644</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>128</v>
+        <v>500</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>180</v>
+        <v>656</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>222</v>
+        <v>658</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>684</v>
+        <v>416</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>253</v>
+        <v>456</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>267</v>
+        <v>663</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>493</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>202</v>
+        <v>496</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>243</v>
+        <v>518</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>348</v>
+        <v>97</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>373</v>
+        <v>108</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>91</v>
+        <v>675</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>700</v>
+        <v>168</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>435</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>439</v>
+        <v>180</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>707</v>
+        <v>222</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>716</v>
+        <v>117</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>718</v>
+        <v>202</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>720</v>
+        <v>125</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>459</v>
+        <v>243</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>724</v>
+        <v>250</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>322</v>
+        <v>91</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>96</v>
+        <v>700</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>2</v>
+        <v>701</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>413</v>
+        <v>109</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>509</v>
+        <v>707</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>90</v>
+        <v>709</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B115" s="5" t="s">
         <v>738</v>
       </c>
     </row>
@@ -8009,8 +8081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
